--- a/input/Domains/Game/RewardTable.xlsx
+++ b/input/Domains/Game/RewardTable.xlsx
@@ -1,127 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maoshy/Documents/Projects/devian/input/Domains/Game/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D516C1AE-ABF2-7C45-9A41-5DD9165294D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="1620" yWindow="1700" windowWidth="37020" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="REWARD" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
-  <si>
-    <t>rewardId</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>pk</t>
-  </si>
-  <si>
-    <t>CurrencyType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>currencyAmount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>currencyType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reward Key</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemId_00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemCount_00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemId_01</t>
-  </si>
-  <si>
-    <t>itemCount_01</t>
-  </si>
-  <si>
-    <t>itemId_02</t>
-  </si>
-  <si>
-    <t>itemCount_02</t>
-  </si>
-  <si>
-    <t>itemId_03</t>
-  </si>
-  <si>
-    <t>itemCount_03</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -129,46 +60,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="메모" xfId="1" builtinId="10"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -247,6 +150,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -281,6 +185,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -315,20 +220,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -450,107 +351,120 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="1" width="24.83203125" customWidth="1"/>
-    <col min="2" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>rewardNum</v>
+      </c>
+      <c r="B1" t="str">
+        <v>rewardGroupId</v>
+      </c>
+      <c r="C1" t="str">
+        <v>type</v>
+      </c>
+      <c r="D1" t="str">
+        <v>id</v>
+      </c>
+      <c r="E1" t="str">
+        <v>amount</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>4</v>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>int</v>
+      </c>
+      <c r="B2" t="str">
+        <v>string</v>
+      </c>
+      <c r="C2" t="str">
+        <v>enum:RewardType</v>
+      </c>
+      <c r="D2" t="str">
+        <v>string</v>
+      </c>
+      <c r="E2" t="str">
+        <v>int</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>pk</v>
+      </c>
+      <c r="B3" t="str">
+        <v>group:true</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Reward PK (auto-increment number)</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Reward Group Key</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Reward Type</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Target ID</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Amount</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/input/Domains/Game/RewardTable.xlsx
+++ b/input/Domains/Game/RewardTable.xlsx
@@ -427,7 +427,7 @@
         <v>string</v>
       </c>
       <c r="C2" t="str">
-        <v>enum:RewardType</v>
+        <v>enum:REWARD_TYPE</v>
       </c>
       <c r="D2" t="str">
         <v>string</v>
